--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N2">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O2">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P2">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q2">
-        <v>4.135488080741555</v>
+        <v>23.21722400666667</v>
       </c>
       <c r="R2">
-        <v>37.219392726674</v>
+        <v>208.95501606</v>
       </c>
       <c r="S2">
-        <v>0.001230720521828671</v>
+        <v>0.007813263698243537</v>
       </c>
       <c r="T2">
-        <v>0.001230720521828671</v>
+        <v>0.007813263698243538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.860601</v>
       </c>
       <c r="O3">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P3">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q3">
-        <v>63.53900614374411</v>
+        <v>114.4438627943333</v>
       </c>
       <c r="R3">
-        <v>571.851055293697</v>
+        <v>1029.994765149</v>
       </c>
       <c r="S3">
-        <v>0.01890919699705233</v>
+        <v>0.03851365169242331</v>
       </c>
       <c r="T3">
-        <v>0.01890919699705233</v>
+        <v>0.03851365169242331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N4">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O4">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P4">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q4">
-        <v>4.902626638155556</v>
+        <v>14.597946272</v>
       </c>
       <c r="R4">
-        <v>44.1236397434</v>
+        <v>131.381516448</v>
       </c>
       <c r="S4">
-        <v>0.001459020820913599</v>
+        <v>0.004912628815709246</v>
       </c>
       <c r="T4">
-        <v>0.0014590208209136</v>
+        <v>0.004912628815709247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N5">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O5">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P5">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q5">
-        <v>140.3344241589142</v>
+        <v>188.6299175973334</v>
       </c>
       <c r="R5">
-        <v>1263.009817430228</v>
+        <v>1697.669258376</v>
       </c>
       <c r="S5">
-        <v>0.04176349982380195</v>
+        <v>0.06347939302057466</v>
       </c>
       <c r="T5">
-        <v>0.04176349982380195</v>
+        <v>0.06347939302057466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N6">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O6">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P6">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q6">
-        <v>1.158188624224333</v>
+        <v>0.4650123263333334</v>
       </c>
       <c r="R6">
-        <v>10.423697618019</v>
+        <v>4.185110937</v>
       </c>
       <c r="S6">
-        <v>0.0003446767298446198</v>
+        <v>0.0001564900234210922</v>
       </c>
       <c r="T6">
-        <v>0.0003446767298446198</v>
+        <v>0.0001564900234210922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>36.467271</v>
       </c>
       <c r="I7">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J7">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N7">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O7">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P7">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q7">
-        <v>1.545572087198</v>
+        <v>4.817488575860001</v>
       </c>
       <c r="R7">
-        <v>13.910148784782</v>
+        <v>43.35739718274001</v>
       </c>
       <c r="S7">
-        <v>0.0004599619799506383</v>
+        <v>0.001621223475970329</v>
       </c>
       <c r="T7">
-        <v>0.0004599619799506385</v>
+        <v>0.001621223475970329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>5.860601</v>
       </c>
       <c r="O8">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P8">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q8">
         <v>23.746680543319</v>
@@ -951,10 +951,10 @@
         <v>213.720124889871</v>
       </c>
       <c r="S8">
-        <v>0.007067007932164501</v>
+        <v>0.007991441052109598</v>
       </c>
       <c r="T8">
-        <v>0.007067007932164502</v>
+        <v>0.007991441052109596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N9">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O9">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P9">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q9">
-        <v>1.8322777718</v>
+        <v>3.029020152288</v>
       </c>
       <c r="R9">
-        <v>16.4904999462</v>
+        <v>27.261181370592</v>
       </c>
       <c r="S9">
-        <v>0.0005452855410093242</v>
+        <v>0.001019352407950419</v>
       </c>
       <c r="T9">
-        <v>0.0005452855410093244</v>
+        <v>0.001019352407950419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N10">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O10">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P10">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q10">
-        <v>52.447731590156</v>
+        <v>39.14001401845601</v>
       </c>
       <c r="R10">
-        <v>472.029584311404</v>
+        <v>352.260126166104</v>
       </c>
       <c r="S10">
-        <v>0.01560843565042808</v>
+        <v>0.01317174054018404</v>
       </c>
       <c r="T10">
-        <v>0.01560843565042808</v>
+        <v>0.01317174054018404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N11">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O11">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P11">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q11">
-        <v>0.432854351013</v>
+        <v>0.09648834714700003</v>
       </c>
       <c r="R11">
-        <v>3.895689159117</v>
+        <v>0.8683951243230001</v>
       </c>
       <c r="S11">
-        <v>0.0001288173783489674</v>
+        <v>3.247110420482232E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001288173783489675</v>
+        <v>3.247110420482231E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H12">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I12">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J12">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N12">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O12">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P12">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q12">
-        <v>19.20778646347511</v>
+        <v>58.53598912438445</v>
       </c>
       <c r="R12">
-        <v>172.870078171276</v>
+        <v>526.8239021194601</v>
       </c>
       <c r="S12">
-        <v>0.005716233856310104</v>
+        <v>0.01969904406896382</v>
       </c>
       <c r="T12">
-        <v>0.005716233856310106</v>
+        <v>0.01969904406896382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H13">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I13">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J13">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>5.860601</v>
       </c>
       <c r="O13">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P13">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q13">
-        <v>295.1147816853642</v>
+        <v>288.5394354621399</v>
       </c>
       <c r="R13">
-        <v>2656.033035168278</v>
+        <v>2596.854919159259</v>
       </c>
       <c r="S13">
-        <v>0.08782610686428044</v>
+        <v>0.09710181957845934</v>
       </c>
       <c r="T13">
-        <v>0.08782610686428045</v>
+        <v>0.09710181957845933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N14">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O14">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P14">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q14">
-        <v>22.77085648351111</v>
+        <v>36.80479733368534</v>
       </c>
       <c r="R14">
-        <v>204.9377083516</v>
+        <v>331.243176003168</v>
       </c>
       <c r="S14">
-        <v>0.00677660286445496</v>
+        <v>0.01238587295560923</v>
       </c>
       <c r="T14">
-        <v>0.006776602864454963</v>
+        <v>0.01238587295560923</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N15">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O15">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P15">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q15">
-        <v>651.8006097688525</v>
+        <v>475.5796300987797</v>
       </c>
       <c r="R15">
-        <v>5866.205487919672</v>
+        <v>4280.216670889016</v>
       </c>
       <c r="S15">
-        <v>0.1939757462531785</v>
+        <v>0.1600462250959852</v>
       </c>
       <c r="T15">
-        <v>0.1939757462531786</v>
+        <v>0.1600462250959852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N16">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O16">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P16">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q16">
-        <v>5.379350476700666</v>
+        <v>1.172403577151889</v>
       </c>
       <c r="R16">
-        <v>48.41415429030599</v>
+        <v>10.551632194367</v>
       </c>
       <c r="S16">
-        <v>0.001600893750997634</v>
+        <v>0.0003945475267164328</v>
       </c>
       <c r="T16">
-        <v>0.001600893750997634</v>
+        <v>0.0003945475267164327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H17">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I17">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J17">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N17">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O17">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P17">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q17">
-        <v>1.238841394057778</v>
+        <v>2.770534964953334</v>
       </c>
       <c r="R17">
-        <v>11.14957254652</v>
+        <v>24.93481468458</v>
       </c>
       <c r="S17">
-        <v>0.0003686789798906519</v>
+        <v>0.0009323647073469482</v>
       </c>
       <c r="T17">
-        <v>0.000368678979890652</v>
+        <v>0.0009323647073469485</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H18">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I18">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J18">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>5.860601</v>
       </c>
       <c r="O18">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P18">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q18">
-        <v>19.03396876289555</v>
+        <v>13.65670259738967</v>
       </c>
       <c r="R18">
-        <v>171.30571886606</v>
+        <v>122.910323376507</v>
       </c>
       <c r="S18">
-        <v>0.005664505739342115</v>
+        <v>0.004595873245279184</v>
       </c>
       <c r="T18">
-        <v>0.005664505739342116</v>
+        <v>0.004595873245279184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H19">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I19">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J19">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N19">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O19">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P19">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q19">
-        <v>1.468648125777778</v>
+        <v>1.741987782496</v>
       </c>
       <c r="R19">
-        <v>13.217833132</v>
+        <v>15.677890042464</v>
       </c>
       <c r="S19">
-        <v>0.0004370694226292668</v>
+        <v>0.0005862289953291384</v>
       </c>
       <c r="T19">
-        <v>0.000437069422629267</v>
+        <v>0.0005862289953291385</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N20">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O20">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P20">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q20">
-        <v>42.03907501727111</v>
+        <v>22.50940000361867</v>
       </c>
       <c r="R20">
-        <v>378.35167515544</v>
+        <v>202.584600032568</v>
       </c>
       <c r="S20">
-        <v>0.01251082129419971</v>
+        <v>0.007575060561375309</v>
       </c>
       <c r="T20">
-        <v>0.01251082129419972</v>
+        <v>0.007575060561375309</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N21">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O21">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P21">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q21">
-        <v>0.3469510688466666</v>
+        <v>0.05549039406566667</v>
       </c>
       <c r="R21">
-        <v>3.12255961962</v>
+        <v>0.499413546591</v>
       </c>
       <c r="S21">
-        <v>0.0001032525767607622</v>
+        <v>1.867411372823934E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001032525767607623</v>
+        <v>1.867411372823934E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H22">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I22">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J22">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N22">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O22">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P22">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q22">
-        <v>18.13016576896178</v>
+        <v>74.43167675237555</v>
       </c>
       <c r="R22">
-        <v>163.171491920656</v>
+        <v>669.8850907713801</v>
       </c>
       <c r="S22">
-        <v>0.005395534128106074</v>
+        <v>0.02504840017918352</v>
       </c>
       <c r="T22">
-        <v>0.005395534128106075</v>
+        <v>0.02504840017918352</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H23">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I23">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J23">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>5.860601</v>
       </c>
       <c r="O23">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P23">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q23">
-        <v>278.5578610529076</v>
+        <v>366.8935011074141</v>
       </c>
       <c r="R23">
-        <v>2507.020749476168</v>
+        <v>3302.041509966727</v>
       </c>
       <c r="S23">
-        <v>0.08289877021070724</v>
+        <v>0.1234702164436583</v>
       </c>
       <c r="T23">
-        <v>0.08289877021070724</v>
+        <v>0.1234702164436583</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H24">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I24">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J24">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N24">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O24">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P24">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q24">
-        <v>21.49333571217778</v>
+        <v>46.79929081332266</v>
       </c>
       <c r="R24">
-        <v>193.4400214096</v>
+        <v>421.193617319904</v>
       </c>
       <c r="S24">
-        <v>0.006396412908724176</v>
+        <v>0.01574930749301815</v>
       </c>
       <c r="T24">
-        <v>0.006396412908724176</v>
+        <v>0.01574930749301815</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H25">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I25">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J25">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N25">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O25">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P25">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q25">
-        <v>615.2324280515592</v>
+        <v>604.7252267713164</v>
       </c>
       <c r="R25">
-        <v>5537.091852464032</v>
+        <v>5442.527040941848</v>
       </c>
       <c r="S25">
-        <v>0.1830930618380023</v>
+        <v>0.2035074331189509</v>
       </c>
       <c r="T25">
-        <v>0.1830930618380024</v>
+        <v>0.2035074331189509</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N26">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O26">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P26">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q26">
-        <v>5.077551026370666</v>
+        <v>1.490774571050111</v>
       </c>
       <c r="R26">
-        <v>45.697959237336</v>
+        <v>13.416971139451</v>
       </c>
       <c r="S26">
-        <v>0.00151107828792631</v>
+        <v>0.0005016885237832836</v>
       </c>
       <c r="T26">
-        <v>0.00151107828792631</v>
+        <v>0.0005016885237832836</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H27">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I27">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J27">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N27">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O27">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P27">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q27">
-        <v>20.656215656972</v>
+        <v>38.33492253674888</v>
       </c>
       <c r="R27">
-        <v>185.905940912748</v>
+        <v>345.01430283074</v>
       </c>
       <c r="S27">
-        <v>0.006147286128266531</v>
+        <v>0.01290080409894623</v>
       </c>
       <c r="T27">
-        <v>0.006147286128266534</v>
+        <v>0.01290080409894623</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H28">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I28">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J28">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>5.860601</v>
       </c>
       <c r="O28">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P28">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q28">
-        <v>317.368926692566</v>
+        <v>188.9630135698968</v>
       </c>
       <c r="R28">
-        <v>2856.320340233094</v>
+        <v>1700.667122129071</v>
       </c>
       <c r="S28">
-        <v>0.09444893648472105</v>
+        <v>0.06359148939651148</v>
       </c>
       <c r="T28">
-        <v>0.09444893648472107</v>
+        <v>0.06359148939651148</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H29">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I29">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J29">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N29">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O29">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P29">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q29">
-        <v>24.4879712252</v>
+        <v>24.10327519655466</v>
       </c>
       <c r="R29">
-        <v>220.3917410268</v>
+        <v>216.929476768992</v>
       </c>
       <c r="S29">
-        <v>0.007287615908059746</v>
+        <v>0.008111445410008453</v>
       </c>
       <c r="T29">
-        <v>0.007287615908059748</v>
+        <v>0.008111445410008453</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H30">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I30">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J30">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N30">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O30">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P30">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q30">
-        <v>700.951876278584</v>
+        <v>311.4546888607671</v>
       </c>
       <c r="R30">
-        <v>6308.566886507256</v>
+        <v>2803.092199746904</v>
       </c>
       <c r="S30">
-        <v>0.2086031544783643</v>
+        <v>0.104813461481218</v>
       </c>
       <c r="T30">
-        <v>0.2086031544783644</v>
+        <v>0.104813461481218</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H31">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I31">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J31">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N31">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O31">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P31">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q31">
-        <v>5.784998898881999</v>
+        <v>0.7678011593247778</v>
       </c>
       <c r="R31">
-        <v>52.064990089938</v>
+        <v>6.910210433923</v>
       </c>
       <c r="S31">
-        <v>0.001721614649735291</v>
+        <v>0.0002583871751376912</v>
       </c>
       <c r="T31">
-        <v>0.001721614649735291</v>
+        <v>0.0002583871751376912</v>
       </c>
     </row>
   </sheetData>
